--- a/iris.xlsx
+++ b/iris.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.cordova\Downloads\pdiPython\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cursos personales\BBDD-DS-ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE9B8F7E-7156-4989-BCC0-0442029FD278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09567324-B174-4EE9-BE8D-A416CDED89E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iris" sheetId="1" r:id="rId1"/>
@@ -49,8 +49,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +184,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -367,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -482,6 +490,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -527,8 +550,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -883,27 +909,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
